--- a/Team_project_ template.xlsx
+++ b/Team_project_ template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\dss\week5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\dss\week5\teamdowns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>xx1</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>서울 중구 신당동</t>
+  </si>
+  <si>
+    <t>종로 신설동역한양립스</t>
   </si>
 </sst>
 </file>
@@ -894,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1566,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G52" si="1">3.305785*F14</f>
+        <f t="shared" ref="G14:G53" si="1">3.305785*F14</f>
         <v>23.140495000000001</v>
       </c>
       <c r="H14">
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O52" si="2">(P18+Q18)*100+R18</f>
+        <f t="shared" ref="O18:O53" si="2">(P18+Q18)*100+R18</f>
         <v>4800</v>
       </c>
       <c r="P18" s="7">
@@ -3606,7 +3609,61 @@
       </c>
     </row>
     <row r="53" spans="2:18">
-      <c r="F53" s="16"/>
+      <c r="D53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="16">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>16.528925000000001</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="P53" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>60</v>
+      </c>
+      <c r="R53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="D54" s="10"/>
+      <c r="H54">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="H56">
+        <v>4.45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Team_project_ template.xlsx
+++ b/Team_project_ template.xlsx
@@ -900,7 +900,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -3661,6 +3661,9 @@
       </c>
     </row>
     <row r="56" spans="2:18">
+      <c r="G56">
+        <v>3.125</v>
+      </c>
       <c r="H56">
         <v>4.45</v>
       </c>

--- a/Team_project_ template.xlsx
+++ b/Team_project_ template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\dss\week5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\dss\week5\teamdowns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>xx1</t>
   </si>
@@ -391,12 +391,15 @@
   <si>
     <t>서울 중구 신당동</t>
   </si>
+  <si>
+    <t>서울특별시 성북구 정릉2동 227-28호</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -567,6 +570,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -588,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -894,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1566,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G52" si="1">3.305785*F14</f>
+        <f t="shared" ref="G14:G54" si="1">3.305785*F14</f>
         <v>23.140495000000001</v>
       </c>
       <c r="H14">
@@ -1811,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O52" si="2">(P18+Q18)*100+R18</f>
+        <f t="shared" ref="O18:O54" si="2">(P18+Q18)*100+R18</f>
         <v>4800</v>
       </c>
       <c r="P18" s="7">
@@ -3605,8 +3618,97 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
-      <c r="F53" s="16"/>
+    <row r="53" spans="2:18" ht="30">
+      <c r="D53" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="16">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>19.834710000000001</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="P53" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>35</v>
+      </c>
+      <c r="R53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="30">
+      <c r="D54" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="16">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>19.834710000000001</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7">
+        <v>1</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="P54" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>35</v>
+      </c>
+      <c r="R54">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Team_project_ template.xlsx
+++ b/Team_project_ template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>xx1</t>
   </si>
@@ -392,14 +392,14 @@
     <t>서울 중구 신당동</t>
   </si>
   <si>
-    <t>서울특별시 성북구 정릉2동 227-28호</t>
+    <t>종로 신설동역한양립스</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,13 +570,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -598,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -624,9 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -907,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1579,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G54" si="1">3.305785*F14</f>
+        <f t="shared" ref="G14:G53" si="1">3.305785*F14</f>
         <v>23.140495000000001</v>
       </c>
       <c r="H14">
@@ -1824,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O54" si="2">(P18+Q18)*100+R18</f>
+        <f t="shared" ref="O18:O53" si="2">(P18+Q18)*100+R18</f>
         <v>4800</v>
       </c>
       <c r="P18" s="7">
@@ -3618,25 +3608,25 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="30">
-      <c r="D53" s="19" t="s">
+    <row r="53" spans="2:18">
+      <c r="D53" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F53" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>19.834710000000001</v>
+        <v>16.528925000000001</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -3648,66 +3638,34 @@
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>7200</v>
       </c>
       <c r="P53" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q53" s="7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="R53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" ht="30">
-      <c r="D54" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="16">
-        <v>6</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>19.834710000000001</v>
-      </c>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="D54" s="10"/>
       <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7">
-        <v>1</v>
-      </c>
-      <c r="L54" s="7">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7">
-        <v>1</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="2"/>
-        <v>5500</v>
-      </c>
-      <c r="P54" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>35</v>
-      </c>
-      <c r="R54">
-        <v>1000</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="G56">
+        <v>3.125</v>
+      </c>
+      <c r="H56">
+        <v>4.45</v>
       </c>
     </row>
   </sheetData>
